--- a/prepared_data/yp_artikkeli_kuviot.xlsx
+++ b/prepared_data/yp_artikkeli_kuviot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pyrykantanen/Github/yd-kuolemansyyt/prepared_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C627EC-36F6-E147-8FE6-ABD0E03CA5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06099A4B-F568-1541-8B1D-5B9EDD9454EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9520" yWindow="620" windowWidth="41680" windowHeight="26940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3160" yWindow="620" windowWidth="32180" windowHeight="26940" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kuvio_1_itsemurha" sheetId="1" r:id="rId1"/>
@@ -19,35 +19,6 @@
     <sheet name="Kuvio_4_yd_yhteensa" sheetId="4" r:id="rId4"/>
     <sheet name="Kuvio_5_asdr" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Kuvio_2_huumekuolemat!$B$2:$B$20</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Kuvio_2_huumekuolemat!$C$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Kuvio_3_vakivalta!$C$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Kuvio_3_vakivalta!$C$2:$C$20</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Kuvio_3_vakivalta!$D$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Kuvio_3_vakivalta!$D$2:$D$20</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Kuvio_3_vakivalta!$E$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Kuvio_3_vakivalta!$E$2:$E$20</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Kuvio_3_vakivalta!$F$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Kuvio_3_vakivalta!$F$2:$F$20</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Kuvio_3_vakivalta!$B$2:$B$20</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Kuvio_3_vakivalta!$C$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Kuvio_2_huumekuolemat!$C$2:$C$20</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Kuvio_3_vakivalta!$C$2:$C$20</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Kuvio_3_vakivalta!$D$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Kuvio_3_vakivalta!$D$2:$D$20</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Kuvio_3_vakivalta!$E$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Kuvio_3_vakivalta!$E$2:$E$20</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Kuvio_3_vakivalta!$F$1</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Kuvio_3_vakivalta!$F$2:$F$20</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Kuvio_2_huumekuolemat!$D$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Kuvio_2_huumekuolemat!$D$2:$D$20</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Kuvio_2_huumekuolemat!$E$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Kuvio_2_huumekuolemat!$E$2:$E$20</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Kuvio_2_huumekuolemat!$F$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Kuvio_2_huumekuolemat!$F$2:$F$20</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Kuvio_3_vakivalta!$B$2:$B$20</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -507,8 +478,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
-    <cellStyle name="Prosenttia" xfId="1" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -532,7 +503,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fi-FI"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1243,7 +1214,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1302,7 +1273,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1344,7 +1315,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1407,7 +1378,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fi-FI"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2129,7 +2100,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2188,7 +2159,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2230,7 +2201,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2293,7 +2264,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fi-FI"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3005,7 +2976,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3064,7 +3035,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3106,7 +3077,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3169,7 +3140,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fi-FI"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3891,7 +3862,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3950,7 +3921,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3992,7 +3963,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4055,7 +4026,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fi-FI"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4767,7 +4738,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4826,7 +4797,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4868,7 +4839,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4931,7 +4902,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fi-FI"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5653,7 +5624,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5712,7 +5683,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5754,7 +5725,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5817,7 +5788,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fi-FI"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5867,12 +5838,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4CBEFC8C-3259-2442-9470-4940ED0FA527}" type="CELLRANGE">
+                    <a:fld id="{24FE6E85-8AFC-7A40-95FA-1C21ED796860}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -5900,12 +5871,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F2976987-92E0-294F-BB5B-FD8D5E7EF3C8}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{5FF80B73-0E5F-3546-8835-70E4803CA726}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -5934,12 +5905,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B9E8F00E-3BAF-1F41-AB06-F93F1BF04E66}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{2A3A79AC-24C5-EC4A-8E92-ABD3A7DF3ACF}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -5968,12 +5939,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5BD553D0-30C0-AB4A-9F6C-3517C1C31989}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{812B7EC5-BEDD-744D-AAE8-0BC4509339C4}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6002,12 +5973,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{40A74787-3CE7-294D-8CB5-42FCE97B3D32}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{DEA93CCD-E76F-2C44-8542-D86F204A3617}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6036,12 +6007,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D1656667-2354-1B48-99E3-D032D259C75D}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{90CD1F60-3003-284C-8D1C-18906929F869}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6070,12 +6041,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F2A7215C-9B87-0449-BDBD-34DB1C41FD02}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{BCF2203A-EA1C-BA46-A9B1-ED92667C0FDE}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6104,12 +6075,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{49F3507E-9757-5B49-9F20-294FD6056EF4}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{03F6D229-D3CE-4C44-97CD-D554C8461DBC}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6138,12 +6109,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9FB1176F-E2D3-A142-9D9F-B1EB9751866F}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{98C5D78B-BF8C-BA4C-8DBC-9FE431AD9C3B}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6172,12 +6143,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DFC42CDF-41AE-8240-AA72-E6F2611BBFEF}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{A67F7F2C-8732-6148-9888-A085276B0F08}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6206,12 +6177,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B7427F22-9269-894D-A553-7F50A8499809}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{AC5652B3-C8B2-9145-ADB7-62B333EB26FC}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6240,12 +6211,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CD612C43-4762-0240-8F4A-EE8DDECF0CF7}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{72BFB6E4-A823-0644-B2B9-13ECEF29874F}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6274,12 +6245,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FCCDEFCF-8545-884C-9B18-4F76C2F65EC6}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{1178B503-F6BA-804B-871A-05C19DEB935D}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6308,12 +6279,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D0D44C5F-F3C8-D54C-AADF-A9DFEE1A1825}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{B42B5709-8F4D-5D4B-90E8-4703EFD1E190}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6342,12 +6313,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9BB17CB9-A831-E448-9AA7-31DB4B9E5771}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{0F34179F-5066-ED4C-9092-0365D5515349}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6376,12 +6347,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CA8F3C57-9098-F94C-A654-D7ECD7D4A1B7}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{AE3B08B6-7883-E84F-8CE0-984266FDCC04}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6410,12 +6381,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E80CF798-72D3-4743-84D3-53A27E5BFA19}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{9BEC8DBC-ADFF-364F-B5CD-4939BC23D776}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6444,12 +6415,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4848B536-807C-2F49-8836-6BF4FA77796D}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{048943C1-1A61-9842-94D2-A333A218EBB0}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6478,12 +6449,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5142605F-1A12-EA45-BEC4-D3112C0F454B}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{AFE9064E-9FCC-3742-925F-1F2AFB65F9A4}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6520,7 +6491,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -6633,61 +6604,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>270</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>262</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>259</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="13">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>273</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>283</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>277</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>261</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>229</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>271</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>276</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>281</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>239</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>242</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>310</c:v>
+                  <c:v>305</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>240</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6699,80 +6670,80 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="19"/>
                   <c:pt idx="0">
-                    <c:v>270
- (44,4 %)</c:v>
+                    <c:v>263
+ (43,3 %)</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>262
- (40,4 %)</c:v>
+                    <c:v>261
+ (40,3 %)</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>259
- (44 %)</c:v>
+                    <c:v>255
+ (43,4 %)</c:v>
                   </c:pt>
                   <c:pt idx="3">
+                    <c:v>269
+ (44,7 %)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>281
+ (45,1 %)</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
                     <c:v>273
+ (48,5 %)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>253
  (45,3 %)</c:v>
                   </c:pt>
-                  <c:pt idx="4">
-                    <c:v>283
- (45,4 %)</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>277
- (49,2 %)</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>261
- (46,7 %)</c:v>
-                  </c:pt>
                   <c:pt idx="7">
-                    <c:v>252
- (50,5 %)</c:v>
+                    <c:v>247
+ (49,5 %)</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>229
- (46,6 %)</c:v>
+                    <c:v>224
+ (45,6 %)</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>184
- (43,2 %)</c:v>
+                    <c:v>182
+ (42,7 %)</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>230
- (50,4 %)</c:v>
+                    <c:v>225
+ (49,3 %)</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>252
- (50,3 %)</c:v>
+                    <c:v>248
+ (49,5 %)</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>271
- (57,3 %)</c:v>
+                    <c:v>262
+ (55,4 %)</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>276
- (51,8 %)</c:v>
+                    <c:v>275
+ (51,6 %)</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>281
+                    <c:v>273
+ (51,2 %)</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>235
  (52,7 %)</c:v>
                   </c:pt>
-                  <c:pt idx="15">
-                    <c:v>239
- (53,6 %)</c:v>
-                  </c:pt>
                   <c:pt idx="16">
-                    <c:v>242
- (51,6 %)</c:v>
+                    <c:v>240
+ (51,2 %)</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>310
- (58,9 %)</c:v>
+                    <c:v>305
+ (58 %)</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>240
- (53,6 %)</c:v>
+                    <c:v>235
+ (52,5 %)</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -6814,12 +6785,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DA9F9A3A-7209-E64A-9FCD-EAE9D60DD184}" type="CELLRANGE">
+                    <a:fld id="{09AED1DA-3DC2-1948-A7D8-AE30A2252689}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6847,12 +6818,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{032C90D2-4E17-C34A-8028-8DA28DAA80A1}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{959BEF2B-3B17-0743-AB4E-668053AA9BDA}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6881,12 +6852,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7040D6EC-7B95-FA49-A78A-5C5D16588526}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{4D8761E6-AE51-6846-9D33-3D53905EF5BE}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6915,12 +6886,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{60A0628F-E047-0541-8A6A-50502377870B}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{2F3FEB64-915E-E34A-823C-D11DDE3537FA}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6949,12 +6920,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FCE9E08F-0430-E042-84BD-D9AF84DE3272}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{9F66DA56-9CE7-D541-9BBF-1637062862EA}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6983,12 +6954,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3248499E-507C-7F45-821F-EE1A792362B3}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{3BEE5128-F8B5-C744-A4F7-1F1721CC01B9}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7017,12 +6988,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B3191052-9050-0642-AAFE-BCD42D8C6787}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{05C77A74-5D13-6744-8EA4-F024B0308D37}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7051,12 +7022,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7568FC59-9303-2E4B-A96B-0C28D7005746}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{66CA9AB6-F31F-D94A-AA29-BFFB84C1935E}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7085,12 +7056,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4313B99F-C3B5-6F49-A43A-483DFFA1CE9C}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{3E571AC7-0A65-1843-B713-529BBE41E0C2}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7119,12 +7090,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{478E27B9-DEB4-AA4B-9BEF-F4C638ABF30F}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{19ED882F-3531-2D48-8AA8-143C42C839A8}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7153,12 +7124,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{42A3C110-44F4-1644-B2CC-E3AB4A15EB95}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{B5A226A8-6BD4-E54F-B2A1-DEB5EC1CEAC0}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7187,12 +7158,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AAD870A7-D0C0-BF47-BE09-84BEC52965BB}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{C1CD73C4-308D-AF44-88B9-038BAF011C3A}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7221,12 +7192,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F8BD6279-C52F-4C4F-B48C-0E3156B8FA48}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{CC911C2D-2A6C-7944-826E-5EB68298CCFF}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7255,12 +7226,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65FC22AE-C011-B549-8D1F-29FFF56BA031}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{463B4863-4B18-9C47-89BF-68CD0FC3C6EE}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7289,12 +7260,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6255675D-E2B0-AD41-9F8F-8157D80154CA}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{C2950369-F8AE-C648-97D9-F14972E050E3}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7323,12 +7294,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{46136627-C78C-8949-8AD8-4A0BB34CE96E}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{573EB3A0-2EFF-6448-9C99-A103C5045AC0}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7357,12 +7328,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B3FB061C-70CA-414C-B993-0C188B29238A}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{0752CCDC-C01E-EB4A-A251-652A3D15BCD2}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7391,12 +7362,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0D05A923-5671-A945-9DE7-ACD995A88D7F}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{DBA0C7FB-C926-C04C-BB69-B9BA38EF3FC5}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7425,12 +7396,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9500D126-27B7-1441-91FC-B21684FBD1F0}" type="CELLRANGE">
-                      <a:rPr lang="fi-FI"/>
+                    <a:fld id="{17CF1F93-8612-C34E-A001-795ED1D1B6E2}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
-                      <a:t>[SOLUALUE]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="fi-FI"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7466,7 +7437,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="95000"/>
@@ -7582,61 +7553,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>338</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>386</c:v>
+                  <c:v>387</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>329</c:v>
+                  <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>329</c:v>
+                  <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>340</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>286</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>298</c:v>
+                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>247</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>262</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>242</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>226</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>249</c:v>
+                  <c:v>253</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>202</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>257</c:v>
+                  <c:v>258</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>252</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>207</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>227</c:v>
+                  <c:v>229</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>216</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>208</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7648,80 +7619,80 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="19"/>
                   <c:pt idx="0">
-                    <c:v>338
- (55,6 %)</c:v>
+                    <c:v>345
+ (56,7 %)</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>386
- (59,6 %)</c:v>
+                    <c:v>387
+ (59,7 %)</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>329
- (56 %)</c:v>
+                    <c:v>333
+ (56,6 %)</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>329
+                    <c:v>333
+ (55,3 %)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>342
+ (54,9 %)</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>290
+ (51,5 %)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>306
  (54,7 %)</c:v>
                   </c:pt>
-                  <c:pt idx="4">
-                    <c:v>340
- (54,6 %)</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>286
- (50,8 %)</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>298
- (53,3 %)</c:v>
-                  </c:pt>
                   <c:pt idx="7">
-                    <c:v>247
- (49,5 %)</c:v>
+                    <c:v>252
+ (50,5 %)</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>262
- (53,4 %)</c:v>
+                    <c:v>267
+ (54,4 %)</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>242
- (56,8 %)</c:v>
+                    <c:v>244
+ (57,3 %)</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>226
- (49,6 %)</c:v>
+                    <c:v>231
+ (50,7 %)</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>249
- (49,7 %)</c:v>
+                    <c:v>253
+ (50,5 %)</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>202
- (42,7 %)</c:v>
+                    <c:v>211
+ (44,6 %)</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>257
- (48,2 %)</c:v>
+                    <c:v>258
+ (48,4 %)</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>252
+                    <c:v>260
+ (48,8 %)</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>211
  (47,3 %)</c:v>
                   </c:pt>
-                  <c:pt idx="15">
-                    <c:v>207
- (46,4 %)</c:v>
-                  </c:pt>
                   <c:pt idx="16">
-                    <c:v>227
- (48,4 %)</c:v>
+                    <c:v>229
+ (48,8 %)</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>216
- (41,1 %)</c:v>
+                    <c:v>221
+ (42 %)</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>208
- (46,4 %)</c:v>
+                    <c:v>213
+ (47,5 %)</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -7774,7 +7745,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7833,7 +7804,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7875,7 +7846,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -7938,7 +7909,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fi-FI"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9437,7 +9408,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -9501,7 +9472,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -9545,7 +9516,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -14180,7 +14151,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-teema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -15752,8 +15723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15794,28 +15765,28 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="D2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E2" s="1">
         <f>C2/SUM(C2:D2)*100</f>
-        <v>55.592105263157897</v>
+        <v>56.743421052631582</v>
       </c>
       <c r="F2" s="1">
         <f>D2/SUM(C2:D2)*100</f>
-        <v>44.40789473684211</v>
+        <v>43.256578947368425</v>
       </c>
       <c r="G2" t="str">
         <f>_xlfn.TEXTJOIN("",,C2,CHAR(10)," (",ROUND(E2,1)," %)")</f>
-        <v>338
- (55,6 %)</v>
+        <v>345
+ (56,7 %)</v>
       </c>
       <c r="H2" t="str">
         <f>_xlfn.TEXTJOIN("",,D2,CHAR(10)," (",ROUND(F2,1)," %)")</f>
-        <v>270
- (44,4 %)</v>
+        <v>263
+ (43,3 %)</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -15826,28 +15797,28 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D3">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E20" si="0">C3/SUM(C3:D3)*100</f>
-        <v>59.567901234567898</v>
+        <v>59.722222222222221</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F20" si="1">D3/SUM(C3:D3)*100</f>
-        <v>40.432098765432102</v>
+        <v>40.277777777777779</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G20" si="2">_xlfn.TEXTJOIN("",,C3,CHAR(10)," (",ROUND(E3,1)," %)")</f>
-        <v>386
- (59,6 %)</v>
+        <v>387
+ (59,7 %)</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H20" si="3">_xlfn.TEXTJOIN("",,D3,CHAR(10)," (",ROUND(F3,1)," %)")</f>
-        <v>262
- (40,4 %)</v>
+        <v>261
+ (40,3 %)</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -15858,28 +15829,28 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D4">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>55.952380952380956</v>
+        <v>56.632653061224488</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="1"/>
-        <v>44.047619047619044</v>
+        <v>43.367346938775512</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="2"/>
-        <v>329
- (56 %)</v>
+        <v>333
+ (56,6 %)</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="3"/>
-        <v>259
- (44 %)</v>
+        <v>255
+ (43,4 %)</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -15890,28 +15861,28 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D5">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>54.651162790697668</v>
+        <v>55.315614617940199</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>45.348837209302324</v>
+        <v>44.684385382059801</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="2"/>
-        <v>329
- (54,7 %)</v>
+        <v>333
+ (55,3 %)</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="3"/>
-        <v>273
- (45,3 %)</v>
+        <v>269
+ (44,7 %)</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -15922,28 +15893,28 @@
         <v>24</v>
       </c>
       <c r="C6">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D6">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>54.574638844301774</v>
+        <v>54.895666131621191</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>45.425361155698234</v>
+        <v>45.104333868378809</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="2"/>
-        <v>340
- (54,6 %)</v>
+        <v>342
+ (54,9 %)</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="3"/>
-        <v>283
- (45,4 %)</v>
+        <v>281
+ (45,1 %)</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -15954,28 +15925,28 @@
         <v>25</v>
       </c>
       <c r="C7">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D7">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>50.799289520426285</v>
+        <v>51.509769094138548</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>49.200710479573715</v>
+        <v>48.490230905861459</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="2"/>
-        <v>286
- (50,8 %)</v>
+        <v>290
+ (51,5 %)</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="3"/>
-        <v>277
- (49,2 %)</v>
+        <v>273
+ (48,5 %)</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -15986,28 +15957,28 @@
         <v>26</v>
       </c>
       <c r="C8">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="D8">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>53.309481216457968</v>
+        <v>54.740608228980328</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="1"/>
-        <v>46.690518783542039</v>
+        <v>45.259391771019679</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="2"/>
-        <v>298
- (53,3 %)</v>
+        <v>306
+ (54,7 %)</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="3"/>
-        <v>261
- (46,7 %)</v>
+        <v>253
+ (45,3 %)</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -16018,28 +15989,28 @@
         <v>27</v>
       </c>
       <c r="C9">
+        <v>252</v>
+      </c>
+      <c r="D9">
         <v>247</v>
-      </c>
-      <c r="D9">
-        <v>252</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>49.498997995991985</v>
+        <v>50.501002004008008</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
-        <v>50.501002004008008</v>
+        <v>49.498997995991985</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="2"/>
+        <v>252
+ (50,5 %)</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="3"/>
         <v>247
  (49,5 %)</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="3"/>
-        <v>252
- (50,5 %)</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -16050,28 +16021,28 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D10">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>53.360488798370675</v>
+        <v>54.378818737270876</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
-        <v>46.639511201629333</v>
+        <v>45.621181262729124</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="2"/>
-        <v>262
- (53,4 %)</v>
+        <v>267
+ (54,4 %)</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="3"/>
-        <v>229
- (46,6 %)</v>
+        <v>224
+ (45,6 %)</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -16082,28 +16053,28 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>56.8075117370892</v>
+        <v>57.276995305164327</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="1"/>
-        <v>43.1924882629108</v>
+        <v>42.72300469483568</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="2"/>
-        <v>242
- (56,8 %)</v>
+        <v>244
+ (57,3 %)</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="3"/>
-        <v>184
- (43,2 %)</v>
+        <v>182
+ (42,7 %)</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -16114,28 +16085,28 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D12">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>49.561403508771932</v>
+        <v>50.657894736842103</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>50.438596491228068</v>
+        <v>49.34210526315789</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="2"/>
-        <v>226
- (49,6 %)</v>
+        <v>231
+ (50,7 %)</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="3"/>
-        <v>230
- (50,4 %)</v>
+        <v>225
+ (49,3 %)</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -16146,28 +16117,28 @@
         <v>31</v>
       </c>
       <c r="C13">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D13">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>49.700598802395206</v>
+        <v>50.499001996007983</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>50.299401197604787</v>
+        <v>49.500998003992017</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="2"/>
-        <v>249
- (49,7 %)</v>
+        <v>253
+ (50,5 %)</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="3"/>
-        <v>252
- (50,3 %)</v>
+        <v>248
+ (49,5 %)</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -16178,28 +16149,28 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D14">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>42.706131078224104</v>
+        <v>44.608879492600423</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>57.293868921775903</v>
+        <v>55.391120507399584</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="2"/>
-        <v>202
- (42,7 %)</v>
+        <v>211
+ (44,6 %)</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="3"/>
-        <v>271
- (57,3 %)</v>
+        <v>262
+ (55,4 %)</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -16210,28 +16181,28 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D15">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>48.217636022514071</v>
+        <v>48.405253283302066</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="1"/>
-        <v>51.782363977485922</v>
+        <v>51.594746716697934</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="2"/>
-        <v>257
- (48,2 %)</v>
+        <v>258
+ (48,4 %)</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="3"/>
-        <v>276
- (51,8 %)</v>
+        <v>275
+ (51,6 %)</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -16242,28 +16213,28 @@
         <v>34</v>
       </c>
       <c r="C16">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D16">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
-        <v>47.27954971857411</v>
+        <v>48.780487804878049</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="1"/>
-        <v>52.72045028142589</v>
+        <v>51.219512195121951</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="2"/>
-        <v>252
- (47,3 %)</v>
+        <v>260
+ (48,8 %)</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="3"/>
-        <v>281
- (52,7 %)</v>
+        <v>273
+ (51,2 %)</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -16274,28 +16245,28 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D17">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="0"/>
-        <v>46.412556053811663</v>
+        <v>47.309417040358746</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="1"/>
-        <v>53.587443946188337</v>
+        <v>52.690582959641254</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="2"/>
-        <v>207
- (46,4 %)</v>
+        <v>211
+ (47,3 %)</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="3"/>
-        <v>239
- (53,6 %)</v>
+        <v>235
+ (52,7 %)</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -16306,28 +16277,28 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D18">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
-        <v>48.400852878464818</v>
+        <v>48.827292110874197</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="1"/>
-        <v>51.599147121535182</v>
+        <v>51.172707889125803</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="2"/>
-        <v>227
- (48,4 %)</v>
+        <v>229
+ (48,8 %)</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="3"/>
-        <v>242
- (51,6 %)</v>
+        <v>240
+ (51,2 %)</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -16338,28 +16309,28 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D19">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
-        <v>41.064638783269963</v>
+        <v>42.01520912547528</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="1"/>
-        <v>58.935361216730044</v>
+        <v>57.98479087452472</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="2"/>
-        <v>216
- (41,1 %)</v>
+        <v>221
+ (42 %)</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="3"/>
-        <v>310
- (58,9 %)</v>
+        <v>305
+ (58 %)</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -16370,28 +16341,28 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D20">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
-        <v>46.428571428571431</v>
+        <v>47.544642857142854</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="1"/>
-        <v>53.571428571428569</v>
+        <v>52.455357142857139</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="2"/>
-        <v>208
- (46,4 %)</v>
+        <v>213
+ (47,5 %)</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="3"/>
-        <v>240
- (53,6 %)</v>
+        <v>235
+ (52,5 %)</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
@@ -16409,8 +16380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
